--- a/北京二手房成交记录0626.xlsx
+++ b/北京二手房成交记录0626.xlsx
@@ -14,7 +14,7 @@
     <sheet name="东风北里" sheetId="5" r:id="rId5"/>
     <sheet name="昌平永安里" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -106,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,6 +259,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -261,7 +270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2216,6 +2225,24 @@
       <c r="A89" s="2">
         <v>20160626</v>
       </c>
+      <c r="B89" s="2">
+        <v>46562</v>
+      </c>
+      <c r="C89" s="2">
+        <v>73190</v>
+      </c>
+      <c r="D89" s="2">
+        <v>26049</v>
+      </c>
+      <c r="E89" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="F89" s="2">
+        <v>722</v>
+      </c>
+      <c r="G89" s="2">
+        <v>28964</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
@@ -2248,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3931,6 +3958,24 @@
       <c r="A89" s="2">
         <v>20160626</v>
       </c>
+      <c r="B89" s="12">
+        <v>78929</v>
+      </c>
+      <c r="C89" s="2">
+        <v>151</v>
+      </c>
+      <c r="D89" s="2">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45</v>
+      </c>
+      <c r="F89" s="2">
+        <v>27</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1437</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
@@ -3963,8 +4008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="C81" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4053,19 +4098,19 @@
       </c>
       <c r="J2" s="7">
         <f>C2/B2</f>
-        <v>90.657062171628695</v>
+        <v>90.657062171628723</v>
       </c>
       <c r="K2" s="7">
         <f>E2/D2</f>
-        <v>91.599673704414599</v>
+        <v>91.599673704414585</v>
       </c>
       <c r="L2" s="7">
         <f>G2/F2</f>
-        <v>85.005624012638194</v>
+        <v>85.005624012638222</v>
       </c>
       <c r="M2" s="7">
         <f>I2/H2</f>
-        <v>84.931693121693101</v>
+        <v>84.931693121693115</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4123,11 +4168,11 @@
       </c>
       <c r="K4" s="7">
         <f t="shared" si="0"/>
-        <v>1.02813868709627E-2</v>
+        <v>1.028138687096272E-2</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" si="0"/>
-        <v>94.659904761904798</v>
+        <v>94.65990476190477</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" si="0"/>
@@ -4164,15 +4209,15 @@
       </c>
       <c r="J5" s="7">
         <f>C5/B5</f>
-        <v>97.481097560975599</v>
+        <v>97.481097560975613</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="0"/>
-        <v>9.5077844985581896E-3</v>
+        <v>9.5077844985581948E-3</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="0"/>
-        <v>101.030921052632</v>
+        <v>101.03092105263158</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" si="0"/>
@@ -4209,15 +4254,15 @@
       </c>
       <c r="J6" s="7">
         <f t="shared" si="0"/>
-        <v>98.172475247524801</v>
+        <v>98.172475247524758</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="0"/>
-        <v>8.97591831712625E-3</v>
+        <v>8.9759183171262535E-3</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>102.128202247191</v>
+        <v>102.12820224719101</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="0"/>
@@ -4258,15 +4303,15 @@
       </c>
       <c r="K7" s="7">
         <f t="shared" si="0"/>
-        <v>1.01329304684156E-2</v>
+        <v>1.0132930468415553E-2</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>92.018439355385894</v>
+        <v>92.018439355385922</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="0"/>
-        <v>5.0419514324580401E-3</v>
+        <v>5.0419514324580366E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4299,11 +4344,11 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
-        <v>88.973640588690898</v>
+        <v>88.973640588690941</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="0"/>
-        <v>1.0029167290950399E-2</v>
+        <v>1.0029167290950408E-2</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" si="0"/>
@@ -4311,7 +4356,7 @@
       </c>
       <c r="M8" s="7">
         <f t="shared" si="0"/>
-        <v>6.2080298558192101E-3</v>
+        <v>6.2080298558192136E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4344,11 +4389,11 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>89.561045751633998</v>
+        <v>89.561045751633984</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="0"/>
-        <v>1.0143882582004901E-2</v>
+        <v>1.0143882582004899E-2</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="0"/>
@@ -4356,7 +4401,7 @@
       </c>
       <c r="M9" s="7">
         <f t="shared" si="0"/>
-        <v>5.3841939896390398E-3</v>
+        <v>5.3841939896390363E-3</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4431,7 +4476,7 @@
       </c>
       <c r="J12" s="7">
         <f t="shared" si="0"/>
-        <v>87.3335433070866</v>
+        <v>87.333543307086615</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="0"/>
@@ -4439,7 +4484,7 @@
       </c>
       <c r="L12" s="7">
         <f t="shared" si="0"/>
-        <v>93.673867924528295</v>
+        <v>93.673867924528309</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="0"/>
@@ -4476,19 +4521,19 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="0"/>
-        <v>88.086437659033095</v>
+        <v>88.086437659033081</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="0"/>
-        <v>1.03342281479821E-2</v>
+        <v>1.0334228147982103E-2</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" si="0"/>
-        <v>90.170097833682703</v>
+        <v>90.170097833682746</v>
       </c>
       <c r="M13" s="7">
         <f t="shared" si="0"/>
-        <v>4.8824564118703801E-3</v>
+        <v>4.8824564118703827E-3</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4525,15 +4570,15 @@
       </c>
       <c r="K14" s="7">
         <f t="shared" si="0"/>
-        <v>9.5313795140017695E-3</v>
+        <v>9.5313795140017678E-3</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="0"/>
-        <v>94.267183441558402</v>
+        <v>94.267183441558444</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="0"/>
-        <v>5.32129377700524E-3</v>
+        <v>5.3212937770052435E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4566,19 +4611,19 @@
       </c>
       <c r="J15" s="7">
         <f t="shared" si="0"/>
-        <v>88.528911564625801</v>
+        <v>88.528911564625844</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="0"/>
-        <v>1.02814330996062E-2</v>
+        <v>1.0281433099606186E-2</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" si="0"/>
-        <v>90.260142002989497</v>
+        <v>90.260142002989539</v>
       </c>
       <c r="M15" s="7">
         <f t="shared" si="0"/>
-        <v>4.8108742650271701E-3</v>
+        <v>4.8108742650271709E-3</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4719,11 +4764,11 @@
       </c>
       <c r="J20" s="7">
         <f>C19/B19</f>
-        <v>89.772267441860507</v>
+        <v>89.772267441860464</v>
       </c>
       <c r="K20" s="7">
         <f>D19/C19</f>
-        <v>9.9087937630295796E-3</v>
+        <v>9.9087937630295778E-3</v>
       </c>
       <c r="L20" s="7">
         <f>E19/D19</f>
@@ -4869,15 +4914,15 @@
       </c>
       <c r="J26" s="7">
         <f t="shared" si="1"/>
-        <v>94.626206896551693</v>
+        <v>94.626206896551722</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="1"/>
-        <v>8.7458457232814403E-3</v>
+        <v>8.745845723281442E-3</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" si="1"/>
-        <v>97.119583333333296</v>
+        <v>97.119583333333338</v>
       </c>
       <c r="M26" s="7">
         <f t="shared" si="1"/>
@@ -6429,6 +6474,30 @@
     <row r="89" spans="1:9">
       <c r="A89" s="2">
         <v>20160626</v>
+      </c>
+      <c r="B89" s="2">
+        <v>115</v>
+      </c>
+      <c r="C89" s="17">
+        <v>9194.23</v>
+      </c>
+      <c r="D89" s="2">
+        <v>93</v>
+      </c>
+      <c r="E89" s="17">
+        <v>8026.17</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -6526,7 +6595,7 @@
       </c>
       <c r="H2" s="7">
         <f>F2/E2</f>
-        <v>91.122326533162493</v>
+        <v>91.122326533162536</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="12">
@@ -6547,11 +6616,11 @@
       </c>
       <c r="G3" s="7">
         <f>D3/C3</f>
-        <v>92.107415768422499</v>
+        <v>92.107415768422484</v>
       </c>
       <c r="H3" s="7">
         <f>E3/D3</f>
-        <v>9.7057688839526507E-3</v>
+        <v>9.7057688839526472E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
